--- a/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0689619301118304</v>
+        <v>0.07057113105437891</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1399934241225452</v>
+        <v>0.138374073751088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1250665201675858</v>
+        <v>0.1243044174008446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1648167738467252</v>
+        <v>0.1633790820549116</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1125126794214369</v>
+        <v>0.113602430803178</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2373603353998457</v>
+        <v>0.2375182030354356</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2148248743634986</v>
+        <v>0.2191686003591</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2739668347224415</v>
+        <v>0.2728731454985863</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1031387629952788</v>
+        <v>0.1020236142183312</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2081769954924286</v>
+        <v>0.2087082699294443</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1896530997403414</v>
+        <v>0.1931763936884613</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2441417900764594</v>
+        <v>0.2453338072003628</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1271526896138959</v>
+        <v>0.126947378094374</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2216498459307627</v>
+        <v>0.2202357295195118</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1962357892128201</v>
+        <v>0.1976190798618288</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2371325497461423</v>
+        <v>0.2353249042288108</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1684453509641193</v>
+        <v>0.1713601623140565</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3112639369684532</v>
+        <v>0.3098851808534804</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.296683915745101</v>
+        <v>0.2982831340081721</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3328422689146099</v>
+        <v>0.3329855979950925</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1467821388363076</v>
+        <v>0.1457348127918619</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2636428813993171</v>
+        <v>0.26427345638552</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2478058961664546</v>
+        <v>0.2471229535205868</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2905057860987116</v>
+        <v>0.2926935404740272</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.05526297508008948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08533177245284089</v>
+        <v>0.0853317724528409</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.08758304630285857</v>
@@ -833,7 +833,7 @@
         <v>0.09478935817928996</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1075397856986072</v>
+        <v>0.1075397856986073</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008961664981493062</v>
+        <v>0.00880162402669382</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03379582623207192</v>
+        <v>0.03295397269350332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02948938721937904</v>
+        <v>0.03151878682417379</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06125171443529382</v>
+        <v>0.06069625286224178</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03368543658382542</v>
+        <v>0.03185618232999683</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08576319742187775</v>
+        <v>0.08858410088543368</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08143998381202858</v>
+        <v>0.08767870154590363</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1052716543770781</v>
+        <v>0.1030694214747888</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02362643041277451</v>
+        <v>0.02519505894084372</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06470497573150283</v>
+        <v>0.06490100238282337</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06817498397943561</v>
+        <v>0.06715409631352694</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08838567583618447</v>
+        <v>0.08734816067041394</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08285560210370943</v>
+        <v>0.07482199085181554</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1310318426103735</v>
+        <v>0.135733663479951</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09480526506745329</v>
+        <v>0.09242149913269593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1198942062513275</v>
+        <v>0.1134900152091698</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.188760857145073</v>
+        <v>0.1820462639112066</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2542146032808253</v>
+        <v>0.2541235644272649</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1988617943071473</v>
+        <v>0.2076641750291164</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1647040186987322</v>
+        <v>0.163934281652237</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09312078460206318</v>
+        <v>0.09870250470814527</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1516456627507915</v>
+        <v>0.1567797810126546</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1305500113514499</v>
+        <v>0.1311447853272152</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1287434358057142</v>
+        <v>0.1292344612474447</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.07557867769100363</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05552303994081892</v>
+        <v>0.05552303994081891</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1250157479803094</v>
@@ -986,34 +986,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01765172573407959</v>
+        <v>0.01842854515245596</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02651776390394607</v>
+        <v>0.02557317934025729</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03460435684024417</v>
+        <v>0.03460613644855891</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04350604454880208</v>
+        <v>0.04494968908933143</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0341034516433224</v>
+        <v>0.03450162567102747</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01860888696094955</v>
+        <v>0.01847510815975809</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02180544985399555</v>
+        <v>0.02278942937981336</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01861807034860136</v>
+        <v>0.01784825155099044</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03826863331849208</v>
+        <v>0.037992071762332</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2034904266051896</v>
+        <v>0.1519741386368814</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2006222076458206</v>
+        <v>0.2231032085997888</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1009226519522631</v>
+        <v>0.1087545715752535</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3052692527715092</v>
+        <v>0.2981793890241273</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3603101526877457</v>
+        <v>0.3661207559904662</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1181622573553334</v>
+        <v>0.1195273486545213</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1604249116905632</v>
+        <v>0.1655539545815821</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.201700486624488</v>
+        <v>0.2133461640407375</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1720824878052831</v>
+        <v>0.1463899051791543</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09194591594498072</v>
+        <v>0.0939700703671842</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2173188244839379</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2290430761575238</v>
+        <v>0.2290430761575239</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1110784540414075</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05945337702034552</v>
+        <v>0.06201777712561553</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1194661974566731</v>
+        <v>0.1197834281617317</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09376257851319245</v>
+        <v>0.09597832850673363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1067603698221771</v>
+        <v>0.1067039007509038</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1090825589652583</v>
+        <v>0.1115440447089625</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2187258268507809</v>
+        <v>0.2242637541276062</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.188342328638622</v>
+        <v>0.1870200960208452</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2105792040477013</v>
+        <v>0.2082847497021992</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09493386779726039</v>
+        <v>0.0936404206635955</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1870897688803449</v>
+        <v>0.1870638810913432</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1547776665573515</v>
+        <v>0.1525289047243881</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.16906924716739</v>
+        <v>0.1694010943660498</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.104787350763361</v>
+        <v>0.1073428281719093</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1835594003343589</v>
+        <v>0.1840200374816254</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1441688049359545</v>
+        <v>0.1448937652668591</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1511359956740753</v>
+        <v>0.1491500285217531</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1654076424618103</v>
+        <v>0.1642911756875978</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2879531675175408</v>
+        <v>0.2881286859899517</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2527085678257764</v>
+        <v>0.2529012608309635</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2500728862504244</v>
+        <v>0.2488524917499331</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1318035758450402</v>
+        <v>0.1298715026348456</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2351939763676617</v>
+        <v>0.2343905528890221</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1981556170392884</v>
+        <v>0.1962884312871007</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1990429408589377</v>
+        <v>0.1987290624631166</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>25736</v>
+        <v>26336</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>58013</v>
+        <v>57342</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>44261</v>
+        <v>43991</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>47457</v>
+        <v>47043</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>66129</v>
+        <v>66770</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>150616</v>
+        <v>150716</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>119176</v>
+        <v>121585</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>146002</v>
+        <v>145419</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>99110</v>
+        <v>98038</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>218366</v>
+        <v>218923</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>172330</v>
+        <v>175531</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>200405</v>
+        <v>201383</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47452</v>
+        <v>47375</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>91851</v>
+        <v>91265</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>69448</v>
+        <v>69938</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>68279</v>
+        <v>67759</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>99004</v>
+        <v>100717</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>197511</v>
+        <v>196636</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>164587</v>
+        <v>165475</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>177378</v>
+        <v>177454</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>141049</v>
+        <v>140042</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>276546</v>
+        <v>277208</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>225171</v>
+        <v>224550</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>238463</v>
+        <v>240259</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4010</v>
+        <v>3910</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5678</v>
+        <v>6068</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18610</v>
+        <v>18441</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2096</v>
+        <v>1982</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7125</v>
+        <v>7359</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15317</v>
+        <v>16490</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>29192</v>
+        <v>28581</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3551</v>
+        <v>3787</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>13054</v>
+        <v>13093</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>25948</v>
+        <v>25559</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>51363</v>
+        <v>50760</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7298</v>
+        <v>6591</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15549</v>
+        <v>16107</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18253</v>
+        <v>17794</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36427</v>
+        <v>34481</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11743</v>
+        <v>11325</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21119</v>
+        <v>21111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>37401</v>
+        <v>39056</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>45673</v>
+        <v>45459</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>13996</v>
+        <v>14834</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>30593</v>
+        <v>31629</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>49688</v>
+        <v>49914</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>74816</v>
+        <v>75102</v>
       </c>
     </row>
     <row r="12">
@@ -1829,34 +1829,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3152</v>
+        <v>3040</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>930</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2826</v>
+        <v>2859</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1065</v>
+        <v>1113</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1409</v>
+        <v>1351</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7720</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8383</v>
+        <v>6260</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8432</v>
+        <v>9377</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11998</v>
+        <v>12929</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8206</v>
+        <v>8015</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8015</v>
+        <v>8145</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9790</v>
+        <v>9903</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10921</v>
+        <v>11270</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>9847</v>
+        <v>10416</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>13027</v>
+        <v>11082</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18549</v>
+        <v>18957</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>29873</v>
+        <v>31162</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>66858</v>
+        <v>67035</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>55176</v>
+        <v>56480</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>75869</v>
+        <v>75828</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>73832</v>
+        <v>75498</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>161828</v>
+        <v>165925</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>146249</v>
+        <v>145222</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>188063</v>
+        <v>186014</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>111956</v>
+        <v>110431</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>243124</v>
+        <v>243090</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>211267</v>
+        <v>208197</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>271139</v>
+        <v>271671</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>52652</v>
+        <v>53936</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>102727</v>
+        <v>102984</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>84838</v>
+        <v>85265</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>107404</v>
+        <v>105992</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>111955</v>
+        <v>111199</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>213046</v>
+        <v>213176</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>196229</v>
+        <v>196379</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>223334</v>
+        <v>222244</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>155437</v>
+        <v>153159</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>305635</v>
+        <v>304591</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>270476</v>
+        <v>267927</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>319208</v>
+        <v>318705</v>
       </c>
     </row>
     <row r="20">
